--- a/6.13.xlsx
+++ b/6.13.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\user\01380531\desktop\mango\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LocalProject\GraduationDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贵七三斤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贵妃加台农五斤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +101,10 @@
   </si>
   <si>
     <t>朱晓岚</t>
+  </si>
+  <si>
+    <t>桂七三斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,7 +562,7 @@
         <v>18098978427</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -585,15 +585,15 @@
         <v>18098978427</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
       </c>
       <c r="C7">
         <v>13130425516</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
       <c r="C8">
         <v>13130425516</v>
@@ -631,15 +631,15 @@
         <v>18098978427</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9">
         <v>13130425516</v>
@@ -654,11 +654,12 @@
         <v>18098978427</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>